--- a/U03/01_Pandas基础实验/inventory.xlsx
+++ b/U03/01_Pandas基础实验/inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\class\大师\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\class\大师\NAMlab\U03\01_Pandas基础实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6724FDEB-AF03-4CAE-85A8-6DCC75F653D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069A2D0F-8F41-4792-B9BF-1AD67C243852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="4290" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3930" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>设备名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,66 @@
   </si>
   <si>
     <t>Cisco@123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港边缘交换机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.9.7 20:21:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京核心交换机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港核心交换机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳边缘交换机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳接入交换机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京接入交换机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港接入交换机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.15.155.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.12.2.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.15.155.32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.12.2.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.15.155.35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,9 +211,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -434,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
@@ -493,13 +552,13 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -516,7 +575,168 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
         <v>19</v>
       </c>
     </row>
